--- a/genshin/485224797850028016_2021-01-28_14-00-02.xlsx
+++ b/genshin/485224797850028016_2021-01-28_14-00-02.xlsx
@@ -16,7 +16,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+  </numFmts>
   <fonts count="1">
     <font>
       <name val="Calibri"/>
@@ -46,8 +48,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -419,6 +422,19 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="12" customWidth="1" min="1" max="1"/>
+    <col width="12" customWidth="1" min="2" max="2"/>
+    <col width="12" customWidth="1" min="3" max="3"/>
+    <col width="50" customWidth="1" min="5" max="5"/>
+    <col width="12" customWidth="1" min="7" max="7"/>
+    <col width="20" customWidth="1" min="8" max="8"/>
+    <col width="12" customWidth="1" min="11" max="11"/>
+    <col width="12" customWidth="1" min="13" max="13"/>
+    <col width="12" customWidth="1" min="15" max="15"/>
+    <col width="20" customWidth="1" min="16" max="16"/>
+    <col width="20" customWidth="1" min="17" max="17"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
@@ -539,10 +555,8 @@
           <t>4077724600</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>2021-02-07 21:26:55</t>
-        </is>
+      <c r="H2" s="1" t="n">
+        <v>44234.89369212963</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -610,10 +624,8 @@
           <t>4016138635</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>2021-02-02 10:10:31</t>
-        </is>
+      <c r="H3" s="1" t="n">
+        <v>44229.42396990741</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -685,10 +697,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>2021-02-01 21:12:16</t>
-        </is>
+      <c r="H4" s="1" t="n">
+        <v>44228.88351851852</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -752,10 +762,8 @@
           <t>4036210487</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>2021-02-01 09:09:28</t>
-        </is>
+      <c r="H5" s="1" t="n">
+        <v>44228.38157407408</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -831,10 +839,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>2021-01-31 14:40:42</t>
-        </is>
+      <c r="H6" s="1" t="n">
+        <v>44227.61159722223</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -899,10 +905,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>2021-01-30 22:52:36</t>
-        </is>
+      <c r="H7" s="1" t="n">
+        <v>44226.95319444445</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -966,10 +970,8 @@
           <t>4027639386</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>2021-01-30 18:14:07</t>
-        </is>
+      <c r="H8" s="1" t="n">
+        <v>44226.75980324074</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1029,10 +1031,8 @@
           <t>4023150997</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>2021-01-29 21:12:07</t>
-        </is>
+      <c r="H9" s="1" t="n">
+        <v>44225.88341435185</v>
       </c>
       <c r="I9" t="n">
         <v>1</v>
@@ -1110,10 +1110,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>2021-01-29 13:13:51</t>
-        </is>
+      <c r="H10" s="1" t="n">
+        <v>44225.55128472222</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1177,10 +1175,8 @@
           <t>4018788979</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>2021-01-29 13:01:36</t>
-        </is>
+      <c r="H11" s="1" t="n">
+        <v>44225.54277777778</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1244,10 +1240,8 @@
           <t>4016323485</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>2021-01-29 12:50:22</t>
-        </is>
+      <c r="H12" s="1" t="n">
+        <v>44225.53497685185</v>
       </c>
       <c r="I12" t="n">
         <v>1</v>
@@ -1315,10 +1309,8 @@
           <t>4019911242</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>2021-01-29 10:14:24</t>
-        </is>
+      <c r="H13" s="1" t="n">
+        <v>44225.42666666667</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1390,10 +1382,8 @@
           <t>4019885780</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>2021-01-29 10:08:31</t>
-        </is>
+      <c r="H14" s="1" t="n">
+        <v>44225.42258101852</v>
       </c>
       <c r="I14" t="n">
         <v>1</v>
@@ -1469,10 +1459,8 @@
           <t>4018117405</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>2021-01-29 08:25:24</t>
-        </is>
+      <c r="H15" s="1" t="n">
+        <v>44225.35097222222</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1536,10 +1524,8 @@
           <t>4019403444</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>2021-01-29 06:30:24</t>
-        </is>
+      <c r="H16" s="1" t="n">
+        <v>44225.27111111111</v>
       </c>
       <c r="I16" t="n">
         <v>1</v>
@@ -1599,10 +1585,8 @@
           <t>4016138635</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>2021-01-29 04:32:17</t>
-        </is>
+      <c r="H17" s="1" t="n">
+        <v>44225.18908564815</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1670,10 +1654,8 @@
           <t>4015719258</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>2021-01-29 02:16:50</t>
-        </is>
+      <c r="H18" s="1" t="n">
+        <v>44225.09502314815</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1749,10 +1731,8 @@
           <t>4018881403</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>2021-01-29 00:32:37</t>
-        </is>
+      <c r="H19" s="1" t="n">
+        <v>44225.02265046296</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -1820,10 +1800,8 @@
           <t>4018818030</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>2021-01-29 00:19:34</t>
-        </is>
+      <c r="H20" s="1" t="n">
+        <v>44225.01358796296</v>
       </c>
       <c r="I20" t="n">
         <v>1</v>
@@ -1891,10 +1869,8 @@
           <t>4018788979</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>2021-01-29 00:13:46</t>
-        </is>
+      <c r="H21" s="1" t="n">
+        <v>44225.00956018519</v>
       </c>
       <c r="I21" t="n">
         <v>4</v>
@@ -1963,10 +1939,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>2021-01-29 00:10:58</t>
-        </is>
+      <c r="H22" s="1" t="n">
+        <v>44225.00761574074</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2030,10 +2004,8 @@
           <t>4018748048</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>2021-01-29 00:04:19</t>
-        </is>
+      <c r="H23" s="1" t="n">
+        <v>44225.00299768519</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2101,10 +2073,8 @@
           <t>4018599317</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>2021-01-28 23:50:45</t>
-        </is>
+      <c r="H24" s="1" t="n">
+        <v>44224.99357638889</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2172,10 +2142,8 @@
           <t>4018599317</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>2021-01-28 23:37:33</t>
-        </is>
+      <c r="H25" s="1" t="n">
+        <v>44224.98440972222</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2243,10 +2211,8 @@
           <t>4018462673</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>2021-01-28 23:29:11</t>
-        </is>
+      <c r="H26" s="1" t="n">
+        <v>44224.97859953704</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2318,10 +2284,8 @@
           <t>4018462673</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>2021-01-28 23:27:19</t>
-        </is>
+      <c r="H27" s="1" t="n">
+        <v>44224.97730324074</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2393,10 +2357,8 @@
           <t>4018504646</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>2021-01-28 23:21:02</t>
-        </is>
+      <c r="H28" s="1" t="n">
+        <v>44224.97293981481</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2472,10 +2434,8 @@
           <t>4018481567</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>2021-01-28 23:16:15</t>
-        </is>
+      <c r="H29" s="1" t="n">
+        <v>44224.96961805555</v>
       </c>
       <c r="I29" t="n">
         <v>1</v>
@@ -2551,10 +2511,8 @@
           <t>4018462673</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>2021-01-28 23:12:55</t>
-        </is>
+      <c r="H30" s="1" t="n">
+        <v>44224.96730324074</v>
       </c>
       <c r="I30" t="n">
         <v>2</v>
@@ -2634,10 +2592,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>2021-01-28 23:09:10</t>
-        </is>
+      <c r="H31" s="1" t="n">
+        <v>44224.96469907407</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2710,10 +2666,8 @@
           <t>4018411921</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>2021-01-28 23:04:48</t>
-        </is>
+      <c r="H32" s="1" t="n">
+        <v>44224.96166666667</v>
       </c>
       <c r="I32" t="n">
         <v>2</v>
@@ -2789,10 +2743,8 @@
           <t>4016323485</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>2021-01-28 23:03:41</t>
-        </is>
+      <c r="H33" s="1" t="n">
+        <v>44224.9608912037</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -2856,10 +2808,8 @@
           <t>4016138635</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>2021-01-28 22:51:35</t>
-        </is>
+      <c r="H34" s="1" t="n">
+        <v>44224.95248842592</v>
       </c>
       <c r="I34" t="n">
         <v>1</v>
@@ -2927,10 +2877,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>2021-01-28 22:42:28</t>
-        </is>
+      <c r="H35" s="1" t="n">
+        <v>44224.94615740741</v>
       </c>
       <c r="I35" t="n">
         <v>1</v>
@@ -3002,10 +2950,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>2021-01-28 22:42:25</t>
-        </is>
+      <c r="H36" s="1" t="n">
+        <v>44224.94612268519</v>
       </c>
       <c r="I36" t="n">
         <v>1</v>
@@ -3069,10 +3015,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>2021-01-28 22:32:24</t>
-        </is>
+      <c r="H37" s="1" t="n">
+        <v>44224.93916666666</v>
       </c>
       <c r="I37" t="n">
         <v>28</v>
@@ -3140,10 +3084,8 @@
           <t>4016323485</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>2021-01-28 22:31:41</t>
-        </is>
+      <c r="H38" s="1" t="n">
+        <v>44224.93866898148</v>
       </c>
       <c r="I38" t="n">
         <v>1</v>
@@ -3211,10 +3153,8 @@
           <t>4018147447</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>2021-01-28 22:21:54</t>
-        </is>
+      <c r="H39" s="1" t="n">
+        <v>44224.931875</v>
       </c>
       <c r="I39" t="n">
         <v>1</v>
@@ -3278,10 +3218,8 @@
           <t>4018145772</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>2021-01-28 22:21:04</t>
-        </is>
+      <c r="H40" s="1" t="n">
+        <v>44224.93129629629</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3357,10 +3295,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>2021-01-28 22:19:32</t>
-        </is>
+      <c r="H41" s="1" t="n">
+        <v>44224.93023148148</v>
       </c>
       <c r="I41" t="n">
         <v>13</v>
@@ -3428,10 +3364,8 @@
           <t>4018117405</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>2021-01-28 22:16:46</t>
-        </is>
+      <c r="H42" s="1" t="n">
+        <v>44224.92831018518</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3499,10 +3433,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>2021-01-28 22:10:56</t>
-        </is>
+      <c r="H43" s="1" t="n">
+        <v>44224.92425925926</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3566,10 +3498,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>2021-01-28 22:07:14</t>
-        </is>
+      <c r="H44" s="1" t="n">
+        <v>44224.92168981482</v>
       </c>
       <c r="I44" t="n">
         <v>1</v>
@@ -3641,10 +3571,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>2021-01-28 22:05:21</t>
-        </is>
+      <c r="H45" s="1" t="n">
+        <v>44224.92038194444</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -3712,10 +3640,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>2021-01-28 21:53:41</t>
-        </is>
+      <c r="H46" s="1" t="n">
+        <v>44224.91228009259</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -3783,10 +3709,8 @@
           <t>4017807543</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>2021-01-28 21:22:52</t>
-        </is>
+      <c r="H47" s="1" t="n">
+        <v>44224.89087962963</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
@@ -3854,10 +3778,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>2021-01-28 21:22:06</t>
-        </is>
+      <c r="H48" s="1" t="n">
+        <v>44224.89034722222</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
@@ -3925,10 +3847,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>2021-01-28 21:21:57</t>
-        </is>
+      <c r="H49" s="1" t="n">
+        <v>44224.89024305555</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
@@ -3996,10 +3916,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>2021-01-28 20:12:30</t>
-        </is>
+      <c r="H50" s="1" t="n">
+        <v>44224.84201388889</v>
       </c>
       <c r="I50" t="n">
         <v>1</v>
@@ -4071,10 +3989,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>2021-01-28 20:07:39</t>
-        </is>
+      <c r="H51" s="1" t="n">
+        <v>44224.83864583333</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
@@ -4138,10 +4054,8 @@
           <t>4017236690</t>
         </is>
       </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>2021-01-28 19:37:46</t>
-        </is>
+      <c r="H52" s="1" t="n">
+        <v>44224.81789351852</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
@@ -4213,10 +4127,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>2021-01-28 19:33:22</t>
-        </is>
+      <c r="H53" s="1" t="n">
+        <v>44224.81483796296</v>
       </c>
       <c r="I53" t="n">
         <v>40</v>
@@ -4288,10 +4200,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>2021-01-28 19:30:24</t>
-        </is>
+      <c r="H54" s="1" t="n">
+        <v>44224.81277777778</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
@@ -4363,10 +4273,8 @@
           <t>4017153228</t>
         </is>
       </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>2021-01-28 19:22:51</t>
-        </is>
+      <c r="H55" s="1" t="n">
+        <v>44224.80753472223</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
@@ -4438,10 +4346,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>2021-01-28 19:13:58</t>
-        </is>
+      <c r="H56" s="1" t="n">
+        <v>44224.80136574074</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
@@ -4517,10 +4423,8 @@
           <t>4015953549</t>
         </is>
       </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>2021-01-28 19:11:04</t>
-        </is>
+      <c r="H57" s="1" t="n">
+        <v>44224.79935185185</v>
       </c>
       <c r="I57" t="n">
         <v>2</v>
@@ -4592,10 +4496,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>2021-01-28 18:56:56</t>
-        </is>
+      <c r="H58" s="1" t="n">
+        <v>44224.78953703704</v>
       </c>
       <c r="I58" t="n">
         <v>8</v>
@@ -4659,10 +4561,8 @@
           <t>4016987827</t>
         </is>
       </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>2021-01-28 18:53:39</t>
-        </is>
+      <c r="H59" s="1" t="n">
+        <v>44224.78725694444</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
@@ -4734,10 +4634,8 @@
           <t>4016948308</t>
         </is>
       </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>2021-01-28 18:46:00</t>
-        </is>
+      <c r="H60" s="1" t="n">
+        <v>44224.78194444445</v>
       </c>
       <c r="I60" t="n">
         <v>1</v>
@@ -4816,10 +4714,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>2021-01-28 18:40:23</t>
-        </is>
+      <c r="H61" s="1" t="n">
+        <v>44224.77804398148</v>
       </c>
       <c r="I61" t="n">
         <v>7</v>
@@ -4883,10 +4779,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>2021-01-28 18:37:09</t>
-        </is>
+      <c r="H62" s="1" t="n">
+        <v>44224.77579861111</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
@@ -4954,10 +4848,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>2021-01-28 18:36:44</t>
-        </is>
+      <c r="H63" s="1" t="n">
+        <v>44224.77550925926</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
@@ -5025,10 +4917,8 @@
           <t>4016836441</t>
         </is>
       </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>2021-01-28 18:25:44</t>
-        </is>
+      <c r="H64" s="1" t="n">
+        <v>44224.76787037037</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
@@ -5112,10 +5002,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>2021-01-28 18:24:20</t>
-        </is>
+      <c r="H65" s="1" t="n">
+        <v>44224.76689814815</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
@@ -5187,10 +5075,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>2021-01-28 18:20:13</t>
-        </is>
+      <c r="H66" s="1" t="n">
+        <v>44224.76403935185</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
@@ -5270,10 +5156,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>2021-01-28 18:17:39</t>
-        </is>
+      <c r="H67" s="1" t="n">
+        <v>44224.76225694444</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
@@ -5341,10 +5225,8 @@
           <t>4016782340</t>
         </is>
       </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>2021-01-28 18:16:07</t>
-        </is>
+      <c r="H68" s="1" t="n">
+        <v>44224.76119212963</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
@@ -5416,10 +5298,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>2021-01-28 18:10:08</t>
-        </is>
+      <c r="H69" s="1" t="n">
+        <v>44224.75703703704</v>
       </c>
       <c r="I69" t="n">
         <v>1</v>
@@ -5491,10 +5371,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>2021-01-28 18:06:07</t>
-        </is>
+      <c r="H70" s="1" t="n">
+        <v>44224.75424768519</v>
       </c>
       <c r="I70" t="n">
         <v>1</v>
@@ -5554,10 +5432,8 @@
           <t>4016499103</t>
         </is>
       </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>2021-01-28 18:05:35</t>
-        </is>
+      <c r="H71" s="1" t="n">
+        <v>44224.75387731481</v>
       </c>
       <c r="I71" t="n">
         <v>1</v>
@@ -5625,10 +5501,8 @@
           <t>4016720057</t>
         </is>
       </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>2021-01-28 18:03:49</t>
-        </is>
+      <c r="H72" s="1" t="n">
+        <v>44224.75265046296</v>
       </c>
       <c r="I72" t="n">
         <v>1</v>
@@ -5704,10 +5578,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>2021-01-28 18:01:04</t>
-        </is>
+      <c r="H73" s="1" t="n">
+        <v>44224.75074074074</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
@@ -5782,10 +5654,8 @@
           <t>4016684728</t>
         </is>
       </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>2021-01-28 17:58:26</t>
-        </is>
+      <c r="H74" s="1" t="n">
+        <v>44224.74891203704</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
@@ -5857,10 +5727,8 @@
           <t>4015953549</t>
         </is>
       </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>2021-01-28 17:48:32</t>
-        </is>
+      <c r="H75" s="1" t="n">
+        <v>44224.74203703704</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
@@ -5936,10 +5804,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>2021-01-28 17:46:57</t>
-        </is>
+      <c r="H76" s="1" t="n">
+        <v>44224.7409375</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
@@ -6003,10 +5869,8 @@
           <t>4015734189</t>
         </is>
       </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>2021-01-28 17:46:03</t>
-        </is>
+      <c r="H77" s="1" t="n">
+        <v>44224.7403125</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
@@ -6074,10 +5938,8 @@
           <t>4016623365</t>
         </is>
       </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>2021-01-28 17:45:59</t>
-        </is>
+      <c r="H78" s="1" t="n">
+        <v>44224.74026620371</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
@@ -6153,10 +6015,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>2021-01-28 17:45:29</t>
-        </is>
+      <c r="H79" s="1" t="n">
+        <v>44224.73991898148</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
@@ -6232,10 +6092,8 @@
           <t>4015953549</t>
         </is>
       </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>2021-01-28 17:44:29</t>
-        </is>
+      <c r="H80" s="1" t="n">
+        <v>44224.73922453704</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
@@ -6307,10 +6165,8 @@
           <t>4016138635</t>
         </is>
       </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>2021-01-28 17:42:20</t>
-        </is>
+      <c r="H81" s="1" t="n">
+        <v>44224.73773148148</v>
       </c>
       <c r="I81" t="n">
         <v>22</v>
@@ -6382,10 +6238,8 @@
           <t>4015953549</t>
         </is>
       </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>2021-01-28 17:28:43</t>
-        </is>
+      <c r="H82" s="1" t="n">
+        <v>44224.72827546296</v>
       </c>
       <c r="I82" t="n">
         <v>2</v>
@@ -6461,10 +6315,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>2021-01-28 17:27:44</t>
-        </is>
+      <c r="H83" s="1" t="n">
+        <v>44224.72759259259</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
@@ -6532,10 +6384,8 @@
           <t>4016499103</t>
         </is>
       </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>2021-01-28 17:20:44</t>
-        </is>
+      <c r="H84" s="1" t="n">
+        <v>44224.72273148148</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
@@ -6599,10 +6449,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>2021-01-28 17:11:46</t>
-        </is>
+      <c r="H85" s="1" t="n">
+        <v>44224.71650462963</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
@@ -6678,10 +6526,8 @@
           <t>4016442215</t>
         </is>
       </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>2021-01-28 17:09:47</t>
-        </is>
+      <c r="H86" s="1" t="n">
+        <v>44224.71512731481</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
@@ -6749,10 +6595,8 @@
           <t>4015829962</t>
         </is>
       </c>
-      <c r="H87" t="inlineStr">
-        <is>
-          <t>2021-01-28 17:09:38</t>
-        </is>
+      <c r="H87" s="1" t="n">
+        <v>44224.71502314815</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
@@ -6820,10 +6664,8 @@
           <t>4016442215</t>
         </is>
       </c>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t>2021-01-28 17:08:12</t>
-        </is>
+      <c r="H88" s="1" t="n">
+        <v>44224.71402777778</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
@@ -6883,10 +6725,8 @@
           <t>4016323485</t>
         </is>
       </c>
-      <c r="H89" t="inlineStr">
-        <is>
-          <t>2021-01-28 17:07:23</t>
-        </is>
+      <c r="H89" s="1" t="n">
+        <v>44224.71346064815</v>
       </c>
       <c r="I89" t="n">
         <v>2</v>
@@ -6950,10 +6790,8 @@
           <t>4016430737</t>
         </is>
       </c>
-      <c r="H90" t="inlineStr">
-        <is>
-          <t>2021-01-28 17:04:37</t>
-        </is>
+      <c r="H90" s="1" t="n">
+        <v>44224.71153935185</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
@@ -7021,10 +6859,8 @@
           <t>4016426481</t>
         </is>
       </c>
-      <c r="H91" t="inlineStr">
-        <is>
-          <t>2021-01-28 17:04:31</t>
-        </is>
+      <c r="H91" s="1" t="n">
+        <v>44224.71146990741</v>
       </c>
       <c r="I91" t="n">
         <v>0</v>
@@ -7092,10 +6928,8 @@
           <t>4016323485</t>
         </is>
       </c>
-      <c r="H92" t="inlineStr">
-        <is>
-          <t>2021-01-28 16:56:04</t>
-        </is>
+      <c r="H92" s="1" t="n">
+        <v>44224.70560185185</v>
       </c>
       <c r="I92" t="n">
         <v>8</v>
@@ -7171,10 +7005,8 @@
           <t>4016368355</t>
         </is>
       </c>
-      <c r="H93" t="inlineStr">
-        <is>
-          <t>2021-01-28 16:52:19</t>
-        </is>
+      <c r="H93" s="1" t="n">
+        <v>44224.70299768518</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
@@ -7250,10 +7082,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H94" t="inlineStr">
-        <is>
-          <t>2021-01-28 16:47:33</t>
-        </is>
+      <c r="H94" s="1" t="n">
+        <v>44224.6996875</v>
       </c>
       <c r="I94" t="n">
         <v>0</v>
@@ -7317,10 +7147,8 @@
           <t>4016323485</t>
         </is>
       </c>
-      <c r="H95" t="inlineStr">
-        <is>
-          <t>2021-01-28 16:41:53</t>
-        </is>
+      <c r="H95" s="1" t="n">
+        <v>44224.69575231482</v>
       </c>
       <c r="I95" t="n">
         <v>45</v>
@@ -7388,10 +7216,8 @@
           <t>4015734189</t>
         </is>
       </c>
-      <c r="H96" t="inlineStr">
-        <is>
-          <t>2021-01-28 16:41:13</t>
-        </is>
+      <c r="H96" s="1" t="n">
+        <v>44224.69528935185</v>
       </c>
       <c r="I96" t="n">
         <v>2</v>
@@ -7468,10 +7294,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H97" t="inlineStr">
-        <is>
-          <t>2021-01-28 16:40:57</t>
-        </is>
+      <c r="H97" s="1" t="n">
+        <v>44224.69510416667</v>
       </c>
       <c r="I97" t="n">
         <v>0</v>
@@ -7547,10 +7371,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H98" t="inlineStr">
-        <is>
-          <t>2021-01-28 16:39:39</t>
-        </is>
+      <c r="H98" s="1" t="n">
+        <v>44224.69420138889</v>
       </c>
       <c r="I98" t="n">
         <v>0</v>
@@ -7619,10 +7441,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H99" t="inlineStr">
-        <is>
-          <t>2021-01-28 16:35:46</t>
-        </is>
+      <c r="H99" s="1" t="n">
+        <v>44224.69150462963</v>
       </c>
       <c r="I99" t="n">
         <v>0</v>
@@ -7690,10 +7510,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H100" t="inlineStr">
-        <is>
-          <t>2021-01-28 16:35:41</t>
-        </is>
+      <c r="H100" s="1" t="n">
+        <v>44224.69144675926</v>
       </c>
       <c r="I100" t="n">
         <v>0</v>
@@ -7765,10 +7583,8 @@
           <t>4016301894</t>
         </is>
       </c>
-      <c r="H101" t="inlineStr">
-        <is>
-          <t>2021-01-28 16:33:50</t>
-        </is>
+      <c r="H101" s="1" t="n">
+        <v>44224.69016203703</v>
       </c>
       <c r="I101" t="n">
         <v>0</v>
@@ -7852,10 +7668,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H102" t="inlineStr">
-        <is>
-          <t>2021-01-28 16:28:50</t>
-        </is>
+      <c r="H102" s="1" t="n">
+        <v>44224.68668981481</v>
       </c>
       <c r="I102" t="n">
         <v>0</v>
@@ -7923,10 +7737,8 @@
           <t>4016269904</t>
         </is>
       </c>
-      <c r="H103" t="inlineStr">
-        <is>
-          <t>2021-01-28 16:28:21</t>
-        </is>
+      <c r="H103" s="1" t="n">
+        <v>44224.68635416667</v>
       </c>
       <c r="I103" t="n">
         <v>0</v>
@@ -7994,10 +7806,8 @@
           <t>4016263855</t>
         </is>
       </c>
-      <c r="H104" t="inlineStr">
-        <is>
-          <t>2021-01-28 16:27:25</t>
-        </is>
+      <c r="H104" s="1" t="n">
+        <v>44224.68570601852</v>
       </c>
       <c r="I104" t="n">
         <v>0</v>
@@ -8069,10 +7879,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H105" t="inlineStr">
-        <is>
-          <t>2021-01-28 16:23:47</t>
-        </is>
+      <c r="H105" s="1" t="n">
+        <v>44224.68318287037</v>
       </c>
       <c r="I105" t="n">
         <v>0</v>
@@ -8144,10 +7952,8 @@
           <t>4015953549</t>
         </is>
       </c>
-      <c r="H106" t="inlineStr">
-        <is>
-          <t>2021-01-28 16:23:15</t>
-        </is>
+      <c r="H106" s="1" t="n">
+        <v>44224.6828125</v>
       </c>
       <c r="I106" t="n">
         <v>4</v>
@@ -8227,10 +8033,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H107" t="inlineStr">
-        <is>
-          <t>2021-01-28 16:20:25</t>
-        </is>
+      <c r="H107" s="1" t="n">
+        <v>44224.68084490741</v>
       </c>
       <c r="I107" t="n">
         <v>4</v>
@@ -8296,10 +8100,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H108" t="inlineStr">
-        <is>
-          <t>2021-01-28 16:20:01</t>
-        </is>
+      <c r="H108" s="1" t="n">
+        <v>44224.68056712963</v>
       </c>
       <c r="I108" t="n">
         <v>353</v>
@@ -8363,10 +8165,8 @@
           <t>4016236088</t>
         </is>
       </c>
-      <c r="H109" t="inlineStr">
-        <is>
-          <t>2021-01-28 16:18:11</t>
-        </is>
+      <c r="H109" s="1" t="n">
+        <v>44224.67929398148</v>
       </c>
       <c r="I109" t="n">
         <v>2</v>
@@ -8434,10 +8234,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H110" t="inlineStr">
-        <is>
-          <t>2021-01-28 16:12:42</t>
-        </is>
+      <c r="H110" s="1" t="n">
+        <v>44224.67548611111</v>
       </c>
       <c r="I110" t="n">
         <v>1</v>
@@ -8501,10 +8299,8 @@
           <t>4016206691</t>
         </is>
       </c>
-      <c r="H111" t="inlineStr">
-        <is>
-          <t>2021-01-28 16:11:13</t>
-        </is>
+      <c r="H111" s="1" t="n">
+        <v>44224.67445601852</v>
       </c>
       <c r="I111" t="n">
         <v>2</v>
@@ -8572,10 +8368,8 @@
           <t>4016210159</t>
         </is>
       </c>
-      <c r="H112" t="inlineStr">
-        <is>
-          <t>2021-01-28 16:10:18</t>
-        </is>
+      <c r="H112" s="1" t="n">
+        <v>44224.67381944445</v>
       </c>
       <c r="I112" t="n">
         <v>0</v>
@@ -8651,10 +8445,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H113" t="inlineStr">
-        <is>
-          <t>2021-01-28 16:10:17</t>
-        </is>
+      <c r="H113" s="1" t="n">
+        <v>44224.67380787037</v>
       </c>
       <c r="I113" t="n">
         <v>0</v>
@@ -8730,10 +8522,8 @@
           <t>4016205236</t>
         </is>
       </c>
-      <c r="H114" t="inlineStr">
-        <is>
-          <t>2021-01-28 16:10:05</t>
-        </is>
+      <c r="H114" s="1" t="n">
+        <v>44224.67366898148</v>
       </c>
       <c r="I114" t="n">
         <v>0</v>
@@ -8809,10 +8599,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H115" t="inlineStr">
-        <is>
-          <t>2021-01-28 16:09:11</t>
-        </is>
+      <c r="H115" s="1" t="n">
+        <v>44224.67304398148</v>
       </c>
       <c r="I115" t="n">
         <v>0</v>
@@ -8876,10 +8664,8 @@
           <t>4016046466</t>
         </is>
       </c>
-      <c r="H116" t="inlineStr">
-        <is>
-          <t>2021-01-28 15:58:49</t>
-        </is>
+      <c r="H116" s="1" t="n">
+        <v>44224.66584490741</v>
       </c>
       <c r="I116" t="n">
         <v>1</v>
@@ -8955,10 +8741,8 @@
           <t>4016138635</t>
         </is>
       </c>
-      <c r="H117" t="inlineStr">
-        <is>
-          <t>2021-01-28 15:54:16</t>
-        </is>
+      <c r="H117" s="1" t="n">
+        <v>44224.66268518518</v>
       </c>
       <c r="I117" t="n">
         <v>56</v>
@@ -9034,10 +8818,8 @@
           <t>4015953549</t>
         </is>
       </c>
-      <c r="H118" t="inlineStr">
-        <is>
-          <t>2021-01-28 15:51:05</t>
-        </is>
+      <c r="H118" s="1" t="n">
+        <v>44224.66047453704</v>
       </c>
       <c r="I118" t="n">
         <v>3</v>
@@ -9113,10 +8895,8 @@
           <t>4016117576</t>
         </is>
       </c>
-      <c r="H119" t="inlineStr">
-        <is>
-          <t>2021-01-28 15:48:25</t>
-        </is>
+      <c r="H119" s="1" t="n">
+        <v>44224.65862268519</v>
       </c>
       <c r="I119" t="n">
         <v>21</v>
@@ -9192,10 +8972,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H120" t="inlineStr">
-        <is>
-          <t>2021-01-28 15:47:00</t>
-        </is>
+      <c r="H120" s="1" t="n">
+        <v>44224.65763888889</v>
       </c>
       <c r="I120" t="n">
         <v>162</v>
@@ -9271,10 +9049,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H121" t="inlineStr">
-        <is>
-          <t>2021-01-28 15:45:08</t>
-        </is>
+      <c r="H121" s="1" t="n">
+        <v>44224.65634259259</v>
       </c>
       <c r="I121" t="n">
         <v>0</v>
@@ -9350,10 +9126,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H122" t="inlineStr">
-        <is>
-          <t>2021-01-28 15:44:19</t>
-        </is>
+      <c r="H122" s="1" t="n">
+        <v>44224.65577546296</v>
       </c>
       <c r="I122" t="n">
         <v>1</v>
@@ -9417,10 +9191,8 @@
           <t>4015829962</t>
         </is>
       </c>
-      <c r="H123" t="inlineStr">
-        <is>
-          <t>2021-01-28 15:43:38</t>
-        </is>
+      <c r="H123" s="1" t="n">
+        <v>44224.65530092592</v>
       </c>
       <c r="I123" t="n">
         <v>2</v>
@@ -9496,10 +9268,8 @@
           <t>4016050536</t>
         </is>
       </c>
-      <c r="H124" t="inlineStr">
-        <is>
-          <t>2021-01-28 15:42:35</t>
-        </is>
+      <c r="H124" s="1" t="n">
+        <v>44224.65457175926</v>
       </c>
       <c r="I124" t="n">
         <v>0</v>
@@ -9567,10 +9337,8 @@
           <t>4016089762</t>
         </is>
       </c>
-      <c r="H125" t="inlineStr">
-        <is>
-          <t>2021-01-28 15:42:18</t>
-        </is>
+      <c r="H125" s="1" t="n">
+        <v>44224.654375</v>
       </c>
       <c r="I125" t="n">
         <v>0</v>
@@ -9638,10 +9406,8 @@
           <t>4016089762</t>
         </is>
       </c>
-      <c r="H126" t="inlineStr">
-        <is>
-          <t>2021-01-28 15:42:06</t>
-        </is>
+      <c r="H126" s="1" t="n">
+        <v>44224.65423611111</v>
       </c>
       <c r="I126" t="n">
         <v>0</v>
@@ -9717,10 +9483,8 @@
           <t>4015732174</t>
         </is>
       </c>
-      <c r="H127" t="inlineStr">
-        <is>
-          <t>2021-01-28 15:39:36</t>
-        </is>
+      <c r="H127" s="1" t="n">
+        <v>44224.6525</v>
       </c>
       <c r="I127" t="n">
         <v>1</v>
@@ -9796,10 +9560,8 @@
           <t>4016050536</t>
         </is>
       </c>
-      <c r="H128" t="inlineStr">
-        <is>
-          <t>2021-01-28 15:39:16</t>
-        </is>
+      <c r="H128" s="1" t="n">
+        <v>44224.65226851852</v>
       </c>
       <c r="I128" t="n">
         <v>0</v>
@@ -9875,10 +9637,8 @@
           <t>4016050536</t>
         </is>
       </c>
-      <c r="H129" t="inlineStr">
-        <is>
-          <t>2021-01-28 15:38:33</t>
-        </is>
+      <c r="H129" s="1" t="n">
+        <v>44224.65177083333</v>
       </c>
       <c r="I129" t="n">
         <v>0</v>
@@ -9954,10 +9714,8 @@
           <t>4016050536</t>
         </is>
       </c>
-      <c r="H130" t="inlineStr">
-        <is>
-          <t>2021-01-28 15:38:04</t>
-        </is>
+      <c r="H130" s="1" t="n">
+        <v>44224.65143518519</v>
       </c>
       <c r="I130" t="n">
         <v>0</v>
@@ -10025,10 +9783,8 @@
           <t>4016050536</t>
         </is>
       </c>
-      <c r="H131" t="inlineStr">
-        <is>
-          <t>2021-01-28 15:37:15</t>
-        </is>
+      <c r="H131" s="1" t="n">
+        <v>44224.65086805556</v>
       </c>
       <c r="I131" t="n">
         <v>0</v>
@@ -10096,10 +9852,8 @@
           <t>4015732174</t>
         </is>
       </c>
-      <c r="H132" t="inlineStr">
-        <is>
-          <t>2021-01-28 15:36:30</t>
-        </is>
+      <c r="H132" s="1" t="n">
+        <v>44224.65034722222</v>
       </c>
       <c r="I132" t="n">
         <v>0</v>
@@ -10171,10 +9925,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H133" t="inlineStr">
-        <is>
-          <t>2021-01-28 15:36:09</t>
-        </is>
+      <c r="H133" s="1" t="n">
+        <v>44224.65010416666</v>
       </c>
       <c r="I133" t="n">
         <v>1</v>
@@ -10242,10 +9994,8 @@
           <t>4016070692</t>
         </is>
       </c>
-      <c r="H134" t="inlineStr">
-        <is>
-          <t>2021-01-28 15:34:56</t>
-        </is>
+      <c r="H134" s="1" t="n">
+        <v>44224.64925925926</v>
       </c>
       <c r="I134" t="n">
         <v>0</v>
@@ -10325,10 +10075,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H135" t="inlineStr">
-        <is>
-          <t>2021-01-28 15:34:51</t>
-        </is>
+      <c r="H135" s="1" t="n">
+        <v>44224.64920138889</v>
       </c>
       <c r="I135" t="n">
         <v>1</v>
@@ -10400,10 +10148,8 @@
           <t>4015894623</t>
         </is>
       </c>
-      <c r="H136" t="inlineStr">
-        <is>
-          <t>2021-01-28 15:34:51</t>
-        </is>
+      <c r="H136" s="1" t="n">
+        <v>44224.64920138889</v>
       </c>
       <c r="I136" t="n">
         <v>0</v>
@@ -10475,10 +10221,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H137" t="inlineStr">
-        <is>
-          <t>2021-01-28 15:34:43</t>
-        </is>
+      <c r="H137" s="1" t="n">
+        <v>44224.64910879629</v>
       </c>
       <c r="I137" t="n">
         <v>1</v>
@@ -10566,10 +10310,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H138" t="inlineStr">
-        <is>
-          <t>2021-01-28 15:34:17</t>
-        </is>
+      <c r="H138" s="1" t="n">
+        <v>44224.64880787037</v>
       </c>
       <c r="I138" t="n">
         <v>0</v>
@@ -10637,10 +10379,8 @@
           <t>4016050536</t>
         </is>
       </c>
-      <c r="H139" t="inlineStr">
-        <is>
-          <t>2021-01-28 15:30:41</t>
-        </is>
+      <c r="H139" s="1" t="n">
+        <v>44224.64630787037</v>
       </c>
       <c r="I139" t="n">
         <v>1</v>
@@ -10724,10 +10464,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H140" t="inlineStr">
-        <is>
-          <t>2021-01-28 15:29:23</t>
-        </is>
+      <c r="H140" s="1" t="n">
+        <v>44224.64540509259</v>
       </c>
       <c r="I140" t="n">
         <v>0</v>
@@ -10791,10 +10529,8 @@
           <t>4016046466</t>
         </is>
       </c>
-      <c r="H141" t="inlineStr">
-        <is>
-          <t>2021-01-28 15:29:08</t>
-        </is>
+      <c r="H141" s="1" t="n">
+        <v>44224.64523148148</v>
       </c>
       <c r="I141" t="n">
         <v>6</v>
@@ -10858,10 +10594,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H142" t="inlineStr">
-        <is>
-          <t>2021-01-28 15:28:15</t>
-        </is>
+      <c r="H142" s="1" t="n">
+        <v>44224.64461805556</v>
       </c>
       <c r="I142" t="n">
         <v>0</v>
@@ -10937,10 +10671,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H143" t="inlineStr">
-        <is>
-          <t>2021-01-28 15:26:44</t>
-        </is>
+      <c r="H143" s="1" t="n">
+        <v>44224.64356481482</v>
       </c>
       <c r="I143" t="n">
         <v>0</v>
@@ -11012,10 +10744,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H144" t="inlineStr">
-        <is>
-          <t>2021-01-28 15:26:12</t>
-        </is>
+      <c r="H144" s="1" t="n">
+        <v>44224.64319444444</v>
       </c>
       <c r="I144" t="n">
         <v>0</v>
@@ -11083,10 +10813,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H145" t="inlineStr">
-        <is>
-          <t>2021-01-28 15:23:05</t>
-        </is>
+      <c r="H145" s="1" t="n">
+        <v>44224.64103009259</v>
       </c>
       <c r="I145" t="n">
         <v>0</v>
@@ -11166,10 +10894,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H146" t="inlineStr">
-        <is>
-          <t>2021-01-28 15:22:02</t>
-        </is>
+      <c r="H146" s="1" t="n">
+        <v>44224.64030092592</v>
       </c>
       <c r="I146" t="n">
         <v>1</v>
@@ -11233,10 +10959,8 @@
           <t>4015829962</t>
         </is>
       </c>
-      <c r="H147" t="inlineStr">
-        <is>
-          <t>2021-01-28 15:20:03</t>
-        </is>
+      <c r="H147" s="1" t="n">
+        <v>44224.63892361111</v>
       </c>
       <c r="I147" t="n">
         <v>0</v>
@@ -11312,10 +11036,8 @@
           <t>4015732174</t>
         </is>
       </c>
-      <c r="H148" t="inlineStr">
-        <is>
-          <t>2021-01-28 15:19:56</t>
-        </is>
+      <c r="H148" s="1" t="n">
+        <v>44224.63884259259</v>
       </c>
       <c r="I148" t="n">
         <v>4</v>
@@ -11379,10 +11101,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H149" t="inlineStr">
-        <is>
-          <t>2021-01-28 15:19:32</t>
-        </is>
+      <c r="H149" s="1" t="n">
+        <v>44224.63856481481</v>
       </c>
       <c r="I149" t="n">
         <v>98</v>
@@ -11450,10 +11170,8 @@
           <t>4016000477</t>
         </is>
       </c>
-      <c r="H150" t="inlineStr">
-        <is>
-          <t>2021-01-28 15:17:39</t>
-        </is>
+      <c r="H150" s="1" t="n">
+        <v>44224.63725694444</v>
       </c>
       <c r="I150" t="n">
         <v>4</v>
@@ -11521,10 +11239,8 @@
           <t>4015998781</t>
         </is>
       </c>
-      <c r="H151" t="inlineStr">
-        <is>
-          <t>2021-01-28 15:17:21</t>
-        </is>
+      <c r="H151" s="1" t="n">
+        <v>44224.63704861111</v>
       </c>
       <c r="I151" t="n">
         <v>1</v>
@@ -11600,10 +11316,8 @@
           <t>4016000477</t>
         </is>
       </c>
-      <c r="H152" t="inlineStr">
-        <is>
-          <t>2021-01-28 15:16:33</t>
-        </is>
+      <c r="H152" s="1" t="n">
+        <v>44224.63649305556</v>
       </c>
       <c r="I152" t="n">
         <v>29</v>
@@ -11667,10 +11381,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H153" t="inlineStr">
-        <is>
-          <t>2021-01-28 15:16:06</t>
-        </is>
+      <c r="H153" s="1" t="n">
+        <v>44224.63618055556</v>
       </c>
       <c r="I153" t="n">
         <v>0</v>
@@ -11742,10 +11454,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H154" t="inlineStr">
-        <is>
-          <t>2021-01-28 15:15:14</t>
-        </is>
+      <c r="H154" s="1" t="n">
+        <v>44224.6355787037</v>
       </c>
       <c r="I154" t="n">
         <v>0</v>
@@ -11821,10 +11531,8 @@
           <t>4015982163</t>
         </is>
       </c>
-      <c r="H155" t="inlineStr">
-        <is>
-          <t>2021-01-28 15:12:06</t>
-        </is>
+      <c r="H155" s="1" t="n">
+        <v>44224.63340277778</v>
       </c>
       <c r="I155" t="n">
         <v>0</v>
@@ -11896,10 +11604,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H156" t="inlineStr">
-        <is>
-          <t>2021-01-28 15:11:32</t>
-        </is>
+      <c r="H156" s="1" t="n">
+        <v>44224.63300925926</v>
       </c>
       <c r="I156" t="n">
         <v>0</v>
@@ -11979,10 +11685,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H157" t="inlineStr">
-        <is>
-          <t>2021-01-28 15:11:07</t>
-        </is>
+      <c r="H157" s="1" t="n">
+        <v>44224.63271990741</v>
       </c>
       <c r="I157" t="n">
         <v>0</v>
@@ -12050,10 +11754,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H158" t="inlineStr">
-        <is>
-          <t>2021-01-28 15:11:03</t>
-        </is>
+      <c r="H158" s="1" t="n">
+        <v>44224.63267361111</v>
       </c>
       <c r="I158" t="n">
         <v>0</v>
@@ -12117,10 +11819,8 @@
           <t>4015953549</t>
         </is>
       </c>
-      <c r="H159" t="inlineStr">
-        <is>
-          <t>2021-01-28 15:08:56</t>
-        </is>
+      <c r="H159" s="1" t="n">
+        <v>44224.63120370371</v>
       </c>
       <c r="I159" t="n">
         <v>15</v>
@@ -12200,10 +11900,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H160" t="inlineStr">
-        <is>
-          <t>2021-01-28 15:06:45</t>
-        </is>
+      <c r="H160" s="1" t="n">
+        <v>44224.6296875</v>
       </c>
       <c r="I160" t="n">
         <v>0</v>
@@ -12287,10 +11985,8 @@
           <t>4015954529</t>
         </is>
       </c>
-      <c r="H161" t="inlineStr">
-        <is>
-          <t>2021-01-28 15:05:58</t>
-        </is>
+      <c r="H161" s="1" t="n">
+        <v>44224.62914351852</v>
       </c>
       <c r="I161" t="n">
         <v>1</v>
@@ -12358,10 +12054,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H162" t="inlineStr">
-        <is>
-          <t>2021-01-28 15:05:50</t>
-        </is>
+      <c r="H162" s="1" t="n">
+        <v>44224.62905092593</v>
       </c>
       <c r="I162" t="n">
         <v>0</v>
@@ -12425,10 +12119,8 @@
           <t>4015953549</t>
         </is>
       </c>
-      <c r="H163" t="inlineStr">
-        <is>
-          <t>2021-01-28 15:05:08</t>
-        </is>
+      <c r="H163" s="1" t="n">
+        <v>44224.62856481481</v>
       </c>
       <c r="I163" t="n">
         <v>53</v>
@@ -12504,10 +12196,8 @@
           <t>4015950683</t>
         </is>
       </c>
-      <c r="H164" t="inlineStr">
-        <is>
-          <t>2021-01-28 15:02:46</t>
-        </is>
+      <c r="H164" s="1" t="n">
+        <v>44224.62692129629</v>
       </c>
       <c r="I164" t="n">
         <v>4</v>
@@ -12583,10 +12273,8 @@
           <t>4015941454</t>
         </is>
       </c>
-      <c r="H165" t="inlineStr">
-        <is>
-          <t>2021-01-28 15:01:45</t>
-        </is>
+      <c r="H165" s="1" t="n">
+        <v>44224.62621527778</v>
       </c>
       <c r="I165" t="n">
         <v>1</v>
@@ -12650,10 +12338,8 @@
           <t>4015938465</t>
         </is>
       </c>
-      <c r="H166" t="inlineStr">
-        <is>
-          <t>2021-01-28 15:00:58</t>
-        </is>
+      <c r="H166" s="1" t="n">
+        <v>44224.62567129629</v>
       </c>
       <c r="I166" t="n">
         <v>0</v>
@@ -12725,10 +12411,8 @@
           <t>4015924789</t>
         </is>
       </c>
-      <c r="H167" t="inlineStr">
-        <is>
-          <t>2021-01-28 14:58:05</t>
-        </is>
+      <c r="H167" s="1" t="n">
+        <v>44224.62366898148</v>
       </c>
       <c r="I167" t="n">
         <v>1</v>
@@ -12812,10 +12496,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H168" t="inlineStr">
-        <is>
-          <t>2021-01-28 14:57:45</t>
-        </is>
+      <c r="H168" s="1" t="n">
+        <v>44224.6234375</v>
       </c>
       <c r="I168" t="n">
         <v>14</v>
@@ -12883,10 +12565,8 @@
           <t>4015880661</t>
         </is>
       </c>
-      <c r="H169" t="inlineStr">
-        <is>
-          <t>2021-01-28 14:55:49</t>
-        </is>
+      <c r="H169" s="1" t="n">
+        <v>44224.6220949074</v>
       </c>
       <c r="I169" t="n">
         <v>0</v>
@@ -12954,10 +12634,8 @@
           <t>4015916475</t>
         </is>
       </c>
-      <c r="H170" t="inlineStr">
-        <is>
-          <t>2021-01-28 14:55:03</t>
-        </is>
+      <c r="H170" s="1" t="n">
+        <v>44224.6215625</v>
       </c>
       <c r="I170" t="n">
         <v>0</v>
@@ -13021,10 +12699,8 @@
           <t>4015915815</t>
         </is>
       </c>
-      <c r="H171" t="inlineStr">
-        <is>
-          <t>2021-01-28 14:54:33</t>
-        </is>
+      <c r="H171" s="1" t="n">
+        <v>44224.62121527778</v>
       </c>
       <c r="I171" t="n">
         <v>0</v>
@@ -13096,10 +12772,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H172" t="inlineStr">
-        <is>
-          <t>2021-01-28 14:54:19</t>
-        </is>
+      <c r="H172" s="1" t="n">
+        <v>44224.62105324074</v>
       </c>
       <c r="I172" t="n">
         <v>0</v>
@@ -13163,10 +12837,8 @@
           <t>4015908448</t>
         </is>
       </c>
-      <c r="H173" t="inlineStr">
-        <is>
-          <t>2021-01-28 14:54:12</t>
-        </is>
+      <c r="H173" s="1" t="n">
+        <v>44224.62097222222</v>
       </c>
       <c r="I173" t="n">
         <v>0</v>
@@ -13234,10 +12906,8 @@
           <t>4015904959</t>
         </is>
       </c>
-      <c r="H174" t="inlineStr">
-        <is>
-          <t>2021-01-28 14:53:53</t>
-        </is>
+      <c r="H174" s="1" t="n">
+        <v>44224.62075231481</v>
       </c>
       <c r="I174" t="n">
         <v>2</v>
@@ -13313,10 +12983,8 @@
           <t>4015904870</t>
         </is>
       </c>
-      <c r="H175" t="inlineStr">
-        <is>
-          <t>2021-01-28 14:53:48</t>
-        </is>
+      <c r="H175" s="1" t="n">
+        <v>44224.62069444444</v>
       </c>
       <c r="I175" t="n">
         <v>0</v>
@@ -13392,10 +13060,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H176" t="inlineStr">
-        <is>
-          <t>2021-01-28 14:53:12</t>
-        </is>
+      <c r="H176" s="1" t="n">
+        <v>44224.62027777778</v>
       </c>
       <c r="I176" t="n">
         <v>0</v>
@@ -13463,10 +13129,8 @@
           <t>4015908448</t>
         </is>
       </c>
-      <c r="H177" t="inlineStr">
-        <is>
-          <t>2021-01-28 14:53:00</t>
-        </is>
+      <c r="H177" s="1" t="n">
+        <v>44224.62013888889</v>
       </c>
       <c r="I177" t="n">
         <v>1</v>
@@ -13542,10 +13206,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H178" t="inlineStr">
-        <is>
-          <t>2021-01-28 14:52:09</t>
-        </is>
+      <c r="H178" s="1" t="n">
+        <v>44224.61954861111</v>
       </c>
       <c r="I178" t="n">
         <v>10</v>
@@ -13617,10 +13279,8 @@
           <t>4015880661</t>
         </is>
       </c>
-      <c r="H179" t="inlineStr">
-        <is>
-          <t>2021-01-28 14:50:59</t>
-        </is>
+      <c r="H179" s="1" t="n">
+        <v>44224.61873842592</v>
       </c>
       <c r="I179" t="n">
         <v>2</v>
@@ -13692,10 +13352,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H180" t="inlineStr">
-        <is>
-          <t>2021-01-28 14:50:25</t>
-        </is>
+      <c r="H180" s="1" t="n">
+        <v>44224.61834490741</v>
       </c>
       <c r="I180" t="n">
         <v>11</v>
@@ -13767,10 +13425,8 @@
           <t>4015900090</t>
         </is>
       </c>
-      <c r="H181" t="inlineStr">
-        <is>
-          <t>2021-01-28 14:49:54</t>
-        </is>
+      <c r="H181" s="1" t="n">
+        <v>44224.61798611111</v>
       </c>
       <c r="I181" t="n">
         <v>0</v>
@@ -13838,10 +13494,8 @@
           <t>4015894623</t>
         </is>
       </c>
-      <c r="H182" t="inlineStr">
-        <is>
-          <t>2021-01-28 14:49:53</t>
-        </is>
+      <c r="H182" s="1" t="n">
+        <v>44224.61797453704</v>
       </c>
       <c r="I182" t="n">
         <v>2</v>
@@ -13905,10 +13559,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H183" t="inlineStr">
-        <is>
-          <t>2021-01-28 14:45:50</t>
-        </is>
+      <c r="H183" s="1" t="n">
+        <v>44224.61516203704</v>
       </c>
       <c r="I183" t="n">
         <v>0</v>
@@ -13977,10 +13629,8 @@
           <t>4015880661</t>
         </is>
       </c>
-      <c r="H184" t="inlineStr">
-        <is>
-          <t>2021-01-28 14:45:15</t>
-        </is>
+      <c r="H184" s="1" t="n">
+        <v>44224.61475694444</v>
       </c>
       <c r="I184" t="n">
         <v>1</v>
@@ -14048,10 +13698,8 @@
           <t>4015875885</t>
         </is>
       </c>
-      <c r="H185" t="inlineStr">
-        <is>
-          <t>2021-01-28 14:44:10</t>
-        </is>
+      <c r="H185" s="1" t="n">
+        <v>44224.61400462963</v>
       </c>
       <c r="I185" t="n">
         <v>0</v>
@@ -14119,10 +13767,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H186" t="inlineStr">
-        <is>
-          <t>2021-01-28 14:43:15</t>
-        </is>
+      <c r="H186" s="1" t="n">
+        <v>44224.61336805556</v>
       </c>
       <c r="I186" t="n">
         <v>0</v>
@@ -14198,10 +13844,8 @@
           <t>4015875885</t>
         </is>
       </c>
-      <c r="H187" t="inlineStr">
-        <is>
-          <t>2021-01-28 14:42:57</t>
-        </is>
+      <c r="H187" s="1" t="n">
+        <v>44224.61315972222</v>
       </c>
       <c r="I187" t="n">
         <v>1</v>
@@ -14277,10 +13921,8 @@
           <t>4015862662</t>
         </is>
       </c>
-      <c r="H188" t="inlineStr">
-        <is>
-          <t>2021-01-28 14:42:37</t>
-        </is>
+      <c r="H188" s="1" t="n">
+        <v>44224.61292824074</v>
       </c>
       <c r="I188" t="n">
         <v>2</v>
@@ -14348,10 +13990,8 @@
           <t>4015734189</t>
         </is>
       </c>
-      <c r="H189" t="inlineStr">
-        <is>
-          <t>2021-01-28 14:42:20</t>
-        </is>
+      <c r="H189" s="1" t="n">
+        <v>44224.61273148148</v>
       </c>
       <c r="I189" t="n">
         <v>0</v>
@@ -14435,10 +14075,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H190" t="inlineStr">
-        <is>
-          <t>2021-01-28 14:41:32</t>
-        </is>
+      <c r="H190" s="1" t="n">
+        <v>44224.61217592593</v>
       </c>
       <c r="I190" t="n">
         <v>1</v>
@@ -14506,10 +14144,8 @@
           <t>4015865657</t>
         </is>
       </c>
-      <c r="H191" t="inlineStr">
-        <is>
-          <t>2021-01-28 14:41:19</t>
-        </is>
+      <c r="H191" s="1" t="n">
+        <v>44224.61202546296</v>
       </c>
       <c r="I191" t="n">
         <v>2</v>
@@ -14585,10 +14221,8 @@
           <t>4015863469</t>
         </is>
       </c>
-      <c r="H192" t="inlineStr">
-        <is>
-          <t>2021-01-28 14:40:56</t>
-        </is>
+      <c r="H192" s="1" t="n">
+        <v>44224.61175925926</v>
       </c>
       <c r="I192" t="n">
         <v>0</v>
@@ -14652,10 +14286,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H193" t="inlineStr">
-        <is>
-          <t>2021-01-28 14:40:22</t>
-        </is>
+      <c r="H193" s="1" t="n">
+        <v>44224.61136574074</v>
       </c>
       <c r="I193" t="n">
         <v>0</v>
@@ -14719,10 +14351,8 @@
           <t>4015862662</t>
         </is>
       </c>
-      <c r="H194" t="inlineStr">
-        <is>
-          <t>2021-01-28 14:40:19</t>
-        </is>
+      <c r="H194" s="1" t="n">
+        <v>44224.61133101852</v>
       </c>
       <c r="I194" t="n">
         <v>38</v>
@@ -14806,10 +14436,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H195" t="inlineStr">
-        <is>
-          <t>2021-01-28 14:39:25</t>
-        </is>
+      <c r="H195" s="1" t="n">
+        <v>44224.61070601852</v>
       </c>
       <c r="I195" t="n">
         <v>11</v>
@@ -14889,10 +14517,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H196" t="inlineStr">
-        <is>
-          <t>2021-01-28 14:38:36</t>
-        </is>
+      <c r="H196" s="1" t="n">
+        <v>44224.61013888889</v>
       </c>
       <c r="I196" t="n">
         <v>1</v>
@@ -14960,10 +14586,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H197" t="inlineStr">
-        <is>
-          <t>2021-01-28 14:37:40</t>
-        </is>
+      <c r="H197" s="1" t="n">
+        <v>44224.60949074074</v>
       </c>
       <c r="I197" t="n">
         <v>356</v>
@@ -15039,10 +14663,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H198" t="inlineStr">
-        <is>
-          <t>2021-01-28 14:37:39</t>
-        </is>
+      <c r="H198" s="1" t="n">
+        <v>44224.60947916667</v>
       </c>
       <c r="I198" t="n">
         <v>1</v>
@@ -15122,10 +14744,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H199" t="inlineStr">
-        <is>
-          <t>2021-01-28 14:37:34</t>
-        </is>
+      <c r="H199" s="1" t="n">
+        <v>44224.6094212963</v>
       </c>
       <c r="I199" t="n">
         <v>1</v>
@@ -15205,10 +14825,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H200" t="inlineStr">
-        <is>
-          <t>2021-01-28 14:36:24</t>
-        </is>
+      <c r="H200" s="1" t="n">
+        <v>44224.60861111111</v>
       </c>
       <c r="I200" t="n">
         <v>2</v>
@@ -15276,10 +14894,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H201" t="inlineStr">
-        <is>
-          <t>2021-01-28 14:35:23</t>
-        </is>
+      <c r="H201" s="1" t="n">
+        <v>44224.60790509259</v>
       </c>
       <c r="I201" t="n">
         <v>0</v>
@@ -15351,10 +14967,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H202" t="inlineStr">
-        <is>
-          <t>2021-01-28 14:35:09</t>
-        </is>
+      <c r="H202" s="1" t="n">
+        <v>44224.60774305555</v>
       </c>
       <c r="I202" t="n">
         <v>8</v>
@@ -15426,10 +15040,8 @@
           <t>4015841136</t>
         </is>
       </c>
-      <c r="H203" t="inlineStr">
-        <is>
-          <t>2021-01-28 14:34:44</t>
-        </is>
+      <c r="H203" s="1" t="n">
+        <v>44224.60745370371</v>
       </c>
       <c r="I203" t="n">
         <v>5</v>
@@ -15506,10 +15118,8 @@
           <t>4015840832</t>
         </is>
       </c>
-      <c r="H204" t="inlineStr">
-        <is>
-          <t>2021-01-28 14:34:29</t>
-        </is>
+      <c r="H204" s="1" t="n">
+        <v>44224.60728009259</v>
       </c>
       <c r="I204" t="n">
         <v>0</v>
@@ -15569,10 +15179,8 @@
           <t>4015829962</t>
         </is>
       </c>
-      <c r="H205" t="inlineStr">
-        <is>
-          <t>2021-01-28 14:33:46</t>
-        </is>
+      <c r="H205" s="1" t="n">
+        <v>44224.60678240741</v>
       </c>
       <c r="I205" t="n">
         <v>268</v>
@@ -15640,10 +15248,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H206" t="inlineStr">
-        <is>
-          <t>2021-01-28 14:33:34</t>
-        </is>
+      <c r="H206" s="1" t="n">
+        <v>44224.60664351852</v>
       </c>
       <c r="I206" t="n">
         <v>0</v>
@@ -15715,10 +15321,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H207" t="inlineStr">
-        <is>
-          <t>2021-01-28 14:32:17</t>
-        </is>
+      <c r="H207" s="1" t="n">
+        <v>44224.60575231481</v>
       </c>
       <c r="I207" t="n">
         <v>5</v>
@@ -15786,10 +15390,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H208" t="inlineStr">
-        <is>
-          <t>2021-01-28 14:31:56</t>
-        </is>
+      <c r="H208" s="1" t="n">
+        <v>44224.60550925926</v>
       </c>
       <c r="I208" t="n">
         <v>1</v>
@@ -15861,10 +15463,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H209" t="inlineStr">
-        <is>
-          <t>2021-01-28 14:31:23</t>
-        </is>
+      <c r="H209" s="1" t="n">
+        <v>44224.60512731481</v>
       </c>
       <c r="I209" t="n">
         <v>1</v>
@@ -15948,10 +15548,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H210" t="inlineStr">
-        <is>
-          <t>2021-01-28 14:31:18</t>
-        </is>
+      <c r="H210" s="1" t="n">
+        <v>44224.60506944444</v>
       </c>
       <c r="I210" t="n">
         <v>2</v>
@@ -16027,10 +15625,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H211" t="inlineStr">
-        <is>
-          <t>2021-01-28 14:31:13</t>
-        </is>
+      <c r="H211" s="1" t="n">
+        <v>44224.60501157407</v>
       </c>
       <c r="I211" t="n">
         <v>46</v>
@@ -16110,10 +15706,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H212" t="inlineStr">
-        <is>
-          <t>2021-01-28 14:30:19</t>
-        </is>
+      <c r="H212" s="1" t="n">
+        <v>44224.60438657407</v>
       </c>
       <c r="I212" t="n">
         <v>223</v>
@@ -16189,10 +15783,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H213" t="inlineStr">
-        <is>
-          <t>2021-01-28 14:29:42</t>
-        </is>
+      <c r="H213" s="1" t="n">
+        <v>44224.60395833333</v>
       </c>
       <c r="I213" t="n">
         <v>1</v>
@@ -16260,10 +15852,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H214" t="inlineStr">
-        <is>
-          <t>2021-01-28 14:28:25</t>
-        </is>
+      <c r="H214" s="1" t="n">
+        <v>44224.60306712963</v>
       </c>
       <c r="I214" t="n">
         <v>0</v>
@@ -16339,10 +15929,8 @@
           <t>4015808377</t>
         </is>
       </c>
-      <c r="H215" t="inlineStr">
-        <is>
-          <t>2021-01-28 14:27:47</t>
-        </is>
+      <c r="H215" s="1" t="n">
+        <v>44224.60262731482</v>
       </c>
       <c r="I215" t="n">
         <v>6</v>
@@ -16426,10 +16014,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H216" t="inlineStr">
-        <is>
-          <t>2021-01-28 14:27:20</t>
-        </is>
+      <c r="H216" s="1" t="n">
+        <v>44224.60231481482</v>
       </c>
       <c r="I216" t="n">
         <v>11</v>
@@ -16509,10 +16095,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H217" t="inlineStr">
-        <is>
-          <t>2021-01-28 14:26:26</t>
-        </is>
+      <c r="H217" s="1" t="n">
+        <v>44224.60168981482</v>
       </c>
       <c r="I217" t="n">
         <v>9</v>
@@ -16592,10 +16176,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H218" t="inlineStr">
-        <is>
-          <t>2021-01-28 14:24:25</t>
-        </is>
+      <c r="H218" s="1" t="n">
+        <v>44224.60028935185</v>
       </c>
       <c r="I218" t="n">
         <v>9</v>
@@ -16667,10 +16249,8 @@
           <t>4015797455</t>
         </is>
       </c>
-      <c r="H219" t="inlineStr">
-        <is>
-          <t>2021-01-28 14:23:48</t>
-        </is>
+      <c r="H219" s="1" t="n">
+        <v>44224.59986111111</v>
       </c>
       <c r="I219" t="n">
         <v>2</v>
@@ -16747,10 +16327,8 @@
           <t>4015797177</t>
         </is>
       </c>
-      <c r="H220" t="inlineStr">
-        <is>
-          <t>2021-01-28 14:23:35</t>
-        </is>
+      <c r="H220" s="1" t="n">
+        <v>44224.59971064814</v>
       </c>
       <c r="I220" t="n">
         <v>0</v>
@@ -16826,10 +16404,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H221" t="inlineStr">
-        <is>
-          <t>2021-01-28 14:23:16</t>
-        </is>
+      <c r="H221" s="1" t="n">
+        <v>44224.59949074074</v>
       </c>
       <c r="I221" t="n">
         <v>0</v>
@@ -16901,10 +16477,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H222" t="inlineStr">
-        <is>
-          <t>2021-01-28 14:23:03</t>
-        </is>
+      <c r="H222" s="1" t="n">
+        <v>44224.59934027777</v>
       </c>
       <c r="I222" t="n">
         <v>30</v>
@@ -16984,10 +16558,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H223" t="inlineStr">
-        <is>
-          <t>2021-01-28 14:22:50</t>
-        </is>
+      <c r="H223" s="1" t="n">
+        <v>44224.59918981481</v>
       </c>
       <c r="I223" t="n">
         <v>8</v>
@@ -17055,10 +16627,8 @@
           <t>4015790790</t>
         </is>
       </c>
-      <c r="H224" t="inlineStr">
-        <is>
-          <t>2021-01-28 14:21:57</t>
-        </is>
+      <c r="H224" s="1" t="n">
+        <v>44224.59857638889</v>
       </c>
       <c r="I224" t="n">
         <v>0</v>
@@ -17134,10 +16704,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H225" t="inlineStr">
-        <is>
-          <t>2021-01-28 14:21:12</t>
-        </is>
+      <c r="H225" s="1" t="n">
+        <v>44224.59805555556</v>
       </c>
       <c r="I225" t="n">
         <v>3</v>
@@ -17213,10 +16781,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H226" t="inlineStr">
-        <is>
-          <t>2021-01-28 14:19:58</t>
-        </is>
+      <c r="H226" s="1" t="n">
+        <v>44224.59719907407</v>
       </c>
       <c r="I226" t="n">
         <v>10</v>
@@ -17292,10 +16858,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H227" t="inlineStr">
-        <is>
-          <t>2021-01-28 14:19:46</t>
-        </is>
+      <c r="H227" s="1" t="n">
+        <v>44224.59706018519</v>
       </c>
       <c r="I227" t="n">
         <v>0</v>
@@ -17359,10 +16923,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H228" t="inlineStr">
-        <is>
-          <t>2021-01-28 14:19:08</t>
-        </is>
+      <c r="H228" s="1" t="n">
+        <v>44224.59662037037</v>
       </c>
       <c r="I228" t="n">
         <v>0</v>
@@ -17426,10 +16988,8 @@
           <t>4015719258</t>
         </is>
       </c>
-      <c r="H229" t="inlineStr">
-        <is>
-          <t>2021-01-28 14:16:30</t>
-        </is>
+      <c r="H229" s="1" t="n">
+        <v>44224.59479166667</v>
       </c>
       <c r="I229" t="n">
         <v>13</v>
@@ -17509,10 +17069,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H230" t="inlineStr">
-        <is>
-          <t>2021-01-28 14:15:57</t>
-        </is>
+      <c r="H230" s="1" t="n">
+        <v>44224.59440972222</v>
       </c>
       <c r="I230" t="n">
         <v>17</v>
@@ -17579,10 +17137,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H231" t="inlineStr">
-        <is>
-          <t>2021-01-28 14:15:39</t>
-        </is>
+      <c r="H231" s="1" t="n">
+        <v>44224.59420138889</v>
       </c>
       <c r="I231" t="n">
         <v>126</v>
@@ -17658,10 +17214,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H232" t="inlineStr">
-        <is>
-          <t>2021-01-28 14:15:06</t>
-        </is>
+      <c r="H232" s="1" t="n">
+        <v>44224.59381944445</v>
       </c>
       <c r="I232" t="n">
         <v>0</v>
@@ -17738,10 +17292,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H233" t="inlineStr">
-        <is>
-          <t>2021-01-28 14:11:35</t>
-        </is>
+      <c r="H233" s="1" t="n">
+        <v>44224.59137731481</v>
       </c>
       <c r="I233" t="n">
         <v>0</v>
@@ -17818,10 +17370,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H234" t="inlineStr">
-        <is>
-          <t>2021-01-28 14:11:04</t>
-        </is>
+      <c r="H234" s="1" t="n">
+        <v>44224.59101851852</v>
       </c>
       <c r="I234" t="n">
         <v>0</v>
@@ -17899,10 +17449,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H235" t="inlineStr">
-        <is>
-          <t>2021-01-28 14:10:45</t>
-        </is>
+      <c r="H235" s="1" t="n">
+        <v>44224.59079861111</v>
       </c>
       <c r="I235" t="n">
         <v>0</v>
@@ -17978,10 +17526,8 @@
           <t>4015755620</t>
         </is>
       </c>
-      <c r="H236" t="inlineStr">
-        <is>
-          <t>2021-01-28 14:10:42</t>
-        </is>
+      <c r="H236" s="1" t="n">
+        <v>44224.59076388889</v>
       </c>
       <c r="I236" t="n">
         <v>2</v>
@@ -18065,10 +17611,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H237" t="inlineStr">
-        <is>
-          <t>2021-01-28 14:10:33</t>
-        </is>
+      <c r="H237" s="1" t="n">
+        <v>44224.59065972222</v>
       </c>
       <c r="I237" t="n">
         <v>0</v>
@@ -18140,10 +17684,8 @@
           <t>4015755074</t>
         </is>
       </c>
-      <c r="H238" t="inlineStr">
-        <is>
-          <t>2021-01-28 14:10:16</t>
-        </is>
+      <c r="H238" s="1" t="n">
+        <v>44224.59046296297</v>
       </c>
       <c r="I238" t="n">
         <v>0</v>
@@ -18219,10 +17761,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H239" t="inlineStr">
-        <is>
-          <t>2021-01-28 14:10:11</t>
-        </is>
+      <c r="H239" s="1" t="n">
+        <v>44224.59040509259</v>
       </c>
       <c r="I239" t="n">
         <v>0</v>
@@ -18298,10 +17838,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H240" t="inlineStr">
-        <is>
-          <t>2021-01-28 14:09:58</t>
-        </is>
+      <c r="H240" s="1" t="n">
+        <v>44224.59025462963</v>
       </c>
       <c r="I240" t="n">
         <v>0</v>
@@ -18369,10 +17907,8 @@
           <t>4015734189</t>
         </is>
       </c>
-      <c r="H241" t="inlineStr">
-        <is>
-          <t>2021-01-28 14:09:10</t>
-        </is>
+      <c r="H241" s="1" t="n">
+        <v>44224.58969907407</v>
       </c>
       <c r="I241" t="n">
         <v>20</v>
@@ -18452,10 +17988,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H242" t="inlineStr">
-        <is>
-          <t>2021-01-28 14:09:02</t>
-        </is>
+      <c r="H242" s="1" t="n">
+        <v>44224.58960648148</v>
       </c>
       <c r="I242" t="n">
         <v>60</v>
@@ -18519,10 +18053,8 @@
           <t>4015719258</t>
         </is>
       </c>
-      <c r="H243" t="inlineStr">
-        <is>
-          <t>2021-01-28 14:08:23</t>
-        </is>
+      <c r="H243" s="1" t="n">
+        <v>44224.5891550926</v>
       </c>
       <c r="I243" t="n">
         <v>0</v>
@@ -18594,10 +18126,8 @@
           <t>4015742607</t>
         </is>
       </c>
-      <c r="H244" t="inlineStr">
-        <is>
-          <t>2021-01-28 14:08:20</t>
-        </is>
+      <c r="H244" s="1" t="n">
+        <v>44224.58912037037</v>
       </c>
       <c r="I244" t="n">
         <v>3</v>
@@ -18665,10 +18195,8 @@
           <t>4015719258</t>
         </is>
       </c>
-      <c r="H245" t="inlineStr">
-        <is>
-          <t>2021-01-28 14:08:10</t>
-        </is>
+      <c r="H245" s="1" t="n">
+        <v>44224.58900462963</v>
       </c>
       <c r="I245" t="n">
         <v>1</v>
@@ -18732,10 +18260,8 @@
           <t>4015719258</t>
         </is>
       </c>
-      <c r="H246" t="inlineStr">
-        <is>
-          <t>2021-01-28 14:08:01</t>
-        </is>
+      <c r="H246" s="1" t="n">
+        <v>44224.58890046296</v>
       </c>
       <c r="I246" t="n">
         <v>13</v>
@@ -18815,10 +18341,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H247" t="inlineStr">
-        <is>
-          <t>2021-01-28 14:07:51</t>
-        </is>
+      <c r="H247" s="1" t="n">
+        <v>44224.58878472223</v>
       </c>
       <c r="I247" t="n">
         <v>120</v>
@@ -18890,10 +18414,8 @@
           <t>4015732174</t>
         </is>
       </c>
-      <c r="H248" t="inlineStr">
-        <is>
-          <t>2021-01-28 14:07:39</t>
-        </is>
+      <c r="H248" s="1" t="n">
+        <v>44224.58864583333</v>
       </c>
       <c r="I248" t="n">
         <v>1</v>
@@ -18965,10 +18487,8 @@
           <t>4015741573</t>
         </is>
       </c>
-      <c r="H249" t="inlineStr">
-        <is>
-          <t>2021-01-28 14:07:33</t>
-        </is>
+      <c r="H249" s="1" t="n">
+        <v>44224.58857638889</v>
       </c>
       <c r="I249" t="n">
         <v>4</v>
@@ -19036,10 +18556,8 @@
           <t>4015740540</t>
         </is>
       </c>
-      <c r="H250" t="inlineStr">
-        <is>
-          <t>2021-01-28 14:06:47</t>
-        </is>
+      <c r="H250" s="1" t="n">
+        <v>44224.58804398148</v>
       </c>
       <c r="I250" t="n">
         <v>4</v>
@@ -19115,10 +18633,8 @@
           <t>4015730548</t>
         </is>
       </c>
-      <c r="H251" t="inlineStr">
-        <is>
-          <t>2021-01-28 14:06:27</t>
-        </is>
+      <c r="H251" s="1" t="n">
+        <v>44224.5878125</v>
       </c>
       <c r="I251" t="n">
         <v>6</v>
@@ -19190,10 +18706,8 @@
           <t>4015730146</t>
         </is>
       </c>
-      <c r="H252" t="inlineStr">
-        <is>
-          <t>2021-01-28 14:06:09</t>
-        </is>
+      <c r="H252" s="1" t="n">
+        <v>44224.58760416666</v>
       </c>
       <c r="I252" t="n">
         <v>22</v>
@@ -19261,10 +18775,8 @@
           <t>4015729906</t>
         </is>
       </c>
-      <c r="H253" t="inlineStr">
-        <is>
-          <t>2021-01-28 14:06:08</t>
-        </is>
+      <c r="H253" s="1" t="n">
+        <v>44224.58759259259</v>
       </c>
       <c r="I253" t="n">
         <v>43</v>
@@ -19328,10 +18840,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H254" t="inlineStr">
-        <is>
-          <t>2021-01-28 14:05:42</t>
-        </is>
+      <c r="H254" s="1" t="n">
+        <v>44224.58729166666</v>
       </c>
       <c r="I254" t="n">
         <v>0</v>
@@ -19395,10 +18905,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H255" t="inlineStr">
-        <is>
-          <t>2021-01-28 14:05:34</t>
-        </is>
+      <c r="H255" s="1" t="n">
+        <v>44224.58719907407</v>
       </c>
       <c r="I255" t="n">
         <v>2121</v>
@@ -19466,10 +18974,8 @@
           <t>4015719258</t>
         </is>
       </c>
-      <c r="H256" t="inlineStr">
-        <is>
-          <t>2021-01-28 14:05:29</t>
-        </is>
+      <c r="H256" s="1" t="n">
+        <v>44224.5871412037</v>
       </c>
       <c r="I256" t="n">
         <v>0</v>
@@ -19545,10 +19051,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H257" t="inlineStr">
-        <is>
-          <t>2021-01-28 14:04:32</t>
-        </is>
+      <c r="H257" s="1" t="n">
+        <v>44224.58648148148</v>
       </c>
       <c r="I257" t="n">
         <v>625</v>
@@ -19617,10 +19121,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H258" t="inlineStr">
-        <is>
-          <t>2021-01-28 14:04:30</t>
-        </is>
+      <c r="H258" s="1" t="n">
+        <v>44224.58645833333</v>
       </c>
       <c r="I258" t="n">
         <v>0</v>
@@ -19680,10 +19182,8 @@
           <t>4015717750</t>
         </is>
       </c>
-      <c r="H259" t="inlineStr">
-        <is>
-          <t>2021-01-28 14:04:19</t>
-        </is>
+      <c r="H259" s="1" t="n">
+        <v>44224.58633101852</v>
       </c>
       <c r="I259" t="n">
         <v>0</v>
@@ -19751,10 +19251,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H260" t="inlineStr">
-        <is>
-          <t>2021-01-28 14:04:16</t>
-        </is>
+      <c r="H260" s="1" t="n">
+        <v>44224.58629629629</v>
       </c>
       <c r="I260" t="n">
         <v>7</v>
@@ -19822,10 +19320,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H261" t="inlineStr">
-        <is>
-          <t>2021-01-28 14:03:48</t>
-        </is>
+      <c r="H261" s="1" t="n">
+        <v>44224.58597222222</v>
       </c>
       <c r="I261" t="n">
         <v>0</v>
@@ -19893,10 +19389,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H262" t="inlineStr">
-        <is>
-          <t>2021-01-28 14:03:44</t>
-        </is>
+      <c r="H262" s="1" t="n">
+        <v>44224.58592592592</v>
       </c>
       <c r="I262" t="n">
         <v>44</v>
@@ -19968,10 +19462,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H263" t="inlineStr">
-        <is>
-          <t>2021-01-28 14:03:36</t>
-        </is>
+      <c r="H263" s="1" t="n">
+        <v>44224.58583333333</v>
       </c>
       <c r="I263" t="n">
         <v>1</v>
@@ -20043,10 +19535,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H264" t="inlineStr">
-        <is>
-          <t>2021-01-28 14:03:04</t>
-        </is>
+      <c r="H264" s="1" t="n">
+        <v>44224.58546296296</v>
       </c>
       <c r="I264" t="n">
         <v>17</v>
@@ -20106,10 +19596,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H265" t="inlineStr">
-        <is>
-          <t>2021-01-28 14:02:46</t>
-        </is>
+      <c r="H265" s="1" t="n">
+        <v>44224.58525462963</v>
       </c>
       <c r="I265" t="n">
         <v>1</v>
@@ -20173,10 +19661,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H266" t="inlineStr">
-        <is>
-          <t>2021-01-28 14:02:30</t>
-        </is>
+      <c r="H266" s="1" t="n">
+        <v>44224.58506944445</v>
       </c>
       <c r="I266" t="n">
         <v>0</v>
@@ -20251,10 +19737,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H267" t="inlineStr">
-        <is>
-          <t>2021-01-28 14:02:24</t>
-        </is>
+      <c r="H267" s="1" t="n">
+        <v>44224.585</v>
       </c>
       <c r="I267" t="n">
         <v>10</v>
@@ -20314,10 +19798,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H268" t="inlineStr">
-        <is>
-          <t>2021-01-28 14:02:09</t>
-        </is>
+      <c r="H268" s="1" t="n">
+        <v>44224.58482638889</v>
       </c>
       <c r="I268" t="n">
         <v>0</v>
@@ -20381,10 +19863,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H269" t="inlineStr">
-        <is>
-          <t>2021-01-28 14:02:08</t>
-        </is>
+      <c r="H269" s="1" t="n">
+        <v>44224.58481481481</v>
       </c>
       <c r="I269" t="n">
         <v>671</v>
@@ -20448,10 +19928,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H270" t="inlineStr">
-        <is>
-          <t>2021-01-28 14:02:05</t>
-        </is>
+      <c r="H270" s="1" t="n">
+        <v>44224.58478009259</v>
       </c>
       <c r="I270" t="n">
         <v>1</v>
@@ -20515,10 +19993,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H271" t="inlineStr">
-        <is>
-          <t>2021-01-28 14:01:56</t>
-        </is>
+      <c r="H271" s="1" t="n">
+        <v>44224.58467592593</v>
       </c>
       <c r="I271" t="n">
         <v>0</v>
@@ -20594,10 +20070,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H272" t="inlineStr">
-        <is>
-          <t>2021-01-28 14:01:52</t>
-        </is>
+      <c r="H272" s="1" t="n">
+        <v>44224.58462962963</v>
       </c>
       <c r="I272" t="n">
         <v>1</v>
@@ -20669,10 +20143,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H273" t="inlineStr">
-        <is>
-          <t>2021-01-28 14:01:50</t>
-        </is>
+      <c r="H273" s="1" t="n">
+        <v>44224.58460648148</v>
       </c>
       <c r="I273" t="n">
         <v>1</v>
@@ -20740,10 +20212,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H274" t="inlineStr">
-        <is>
-          <t>2021-01-28 14:01:50</t>
-        </is>
+      <c r="H274" s="1" t="n">
+        <v>44224.58460648148</v>
       </c>
       <c r="I274" t="n">
         <v>0</v>
@@ -20803,10 +20273,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H275" t="inlineStr">
-        <is>
-          <t>2021-01-28 14:01:50</t>
-        </is>
+      <c r="H275" s="1" t="n">
+        <v>44224.58460648148</v>
       </c>
       <c r="I275" t="n">
         <v>0</v>
@@ -20874,10 +20342,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H276" t="inlineStr">
-        <is>
-          <t>2021-01-28 14:01:45</t>
-        </is>
+      <c r="H276" s="1" t="n">
+        <v>44224.58454861111</v>
       </c>
       <c r="I276" t="n">
         <v>78</v>
@@ -20945,10 +20411,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H277" t="inlineStr">
-        <is>
-          <t>2021-01-28 14:01:16</t>
-        </is>
+      <c r="H277" s="1" t="n">
+        <v>44224.58421296296</v>
       </c>
       <c r="I277" t="n">
         <v>0</v>
@@ -21024,10 +20488,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H278" t="inlineStr">
-        <is>
-          <t>2021-01-28 14:00:57</t>
-        </is>
+      <c r="H278" s="1" t="n">
+        <v>44224.58399305555</v>
       </c>
       <c r="I278" t="n">
         <v>13</v>
@@ -21103,10 +20565,8 @@
           <t>4015707766</t>
         </is>
       </c>
-      <c r="H279" t="inlineStr">
-        <is>
-          <t>2021-01-28 14:00:54</t>
-        </is>
+      <c r="H279" s="1" t="n">
+        <v>44224.58395833334</v>
       </c>
       <c r="I279" t="n">
         <v>0</v>
@@ -21174,10 +20634,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H280" t="inlineStr">
-        <is>
-          <t>2021-01-28 14:00:52</t>
-        </is>
+      <c r="H280" s="1" t="n">
+        <v>44224.58393518518</v>
       </c>
       <c r="I280" t="n">
         <v>0</v>
@@ -21254,10 +20712,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H281" t="inlineStr">
-        <is>
-          <t>2021-01-28 14:00:51</t>
-        </is>
+      <c r="H281" s="1" t="n">
+        <v>44224.58392361111</v>
       </c>
       <c r="I281" t="n">
         <v>1</v>
@@ -21333,10 +20789,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H282" t="inlineStr">
-        <is>
-          <t>2021-01-28 14:00:45</t>
-        </is>
+      <c r="H282" s="1" t="n">
+        <v>44224.58385416667</v>
       </c>
       <c r="I282" t="n">
         <v>0</v>
@@ -21404,10 +20858,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H283" t="inlineStr">
-        <is>
-          <t>2021-01-28 14:00:44</t>
-        </is>
+      <c r="H283" s="1" t="n">
+        <v>44224.58384259259</v>
       </c>
       <c r="I283" t="n">
         <v>0</v>
@@ -21475,10 +20927,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H284" t="inlineStr">
-        <is>
-          <t>2021-01-28 14:00:43</t>
-        </is>
+      <c r="H284" s="1" t="n">
+        <v>44224.58383101852</v>
       </c>
       <c r="I284" t="n">
         <v>3</v>
@@ -21546,10 +20996,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H285" t="inlineStr">
-        <is>
-          <t>2021-01-28 14:00:40</t>
-        </is>
+      <c r="H285" s="1" t="n">
+        <v>44224.5837962963</v>
       </c>
       <c r="I285" t="n">
         <v>0</v>
@@ -21609,10 +21057,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H286" t="inlineStr">
-        <is>
-          <t>2021-01-28 14:00:21</t>
-        </is>
+      <c r="H286" s="1" t="n">
+        <v>44224.58357638889</v>
       </c>
       <c r="I286" t="n">
         <v>0</v>
